--- a/Vendedores.xlsx
+++ b/Vendedores.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20535" windowHeight="5970"/>
+    <workbookView windowWidth="17505" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas" sheetId="1" r:id="rId1"/>
-    <sheet name="Pagamentos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Nome do Vendedor</t>
   </si>
@@ -45,107 +44,144 @@
     <t>Estado</t>
   </si>
   <si>
+    <t>Ana Costa</t>
+  </si>
+  <si>
+    <t>806.022.515-40</t>
+  </si>
+  <si>
+    <t>joao@outlook.com</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Carlos Santos</t>
+  </si>
+  <si>
+    <t>193.347.010-05</t>
+  </si>
+  <si>
+    <t>maria@gmail.com</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Daniella Fernandes</t>
+  </si>
+  <si>
+    <t>269.969.930-67</t>
+  </si>
+  <si>
+    <t>pedro@hotmail.com</t>
+  </si>
+  <si>
+    <t>Eduardo Pereira</t>
+  </si>
+  <si>
+    <t>475.120.632-02</t>
+  </si>
+  <si>
+    <t>ana@outlook.com.br</t>
+  </si>
+  <si>
+    <t>Fernanda Rodrigues</t>
+  </si>
+  <si>
+    <t>428.398.462-09</t>
+  </si>
+  <si>
+    <t>carlos@hotmail.com.br</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Gabriel Silva</t>
+  </si>
+  <si>
+    <t>644.002.634-87</t>
+  </si>
+  <si>
+    <t>klhiwrea@hotmail.com</t>
+  </si>
+  <si>
+    <t>Gabriela Oliveira</t>
+  </si>
+  <si>
+    <t>486.859.276-92</t>
+  </si>
+  <si>
+    <t>mzueqb5p@outlook.com</t>
+  </si>
+  <si>
+    <t>Henrique Santos</t>
+  </si>
+  <si>
+    <t>436.163.104-23</t>
+  </si>
+  <si>
+    <t>g8vkik91@gmail.com</t>
+  </si>
+  <si>
+    <t>Isabella Fernandes</t>
+  </si>
+  <si>
+    <t>187.089.408-19</t>
+  </si>
+  <si>
+    <t>pcstbhfc@icloud.com</t>
+  </si>
+  <si>
     <t>João Silva</t>
   </si>
   <si>
-    <t>806.022.515-40</t>
-  </si>
-  <si>
-    <t>joao@outlook.com</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>308.777.204-60</t>
+  </si>
+  <si>
+    <t>5ikpr6yc@gmail.com</t>
+  </si>
+  <si>
+    <t>João Souza</t>
+  </si>
+  <si>
+    <t>170.480.837-51</t>
+  </si>
+  <si>
+    <t>kbiwvbby@hotmail.com</t>
   </si>
   <si>
     <t>Maria Oliveira</t>
   </si>
   <si>
-    <t>193.347.010-05</t>
-  </si>
-  <si>
-    <t>maria@gmail.com</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Pedro Santos</t>
-  </si>
-  <si>
-    <t>269.969.930-67</t>
-  </si>
-  <si>
-    <t>pedro@hotmail.com</t>
-  </si>
-  <si>
-    <t>Ana Costa</t>
-  </si>
-  <si>
-    <t>475.120.632-02</t>
-  </si>
-  <si>
-    <t>ana@outlook.com.br</t>
-  </si>
-  <si>
-    <t>Carlos Santos</t>
-  </si>
-  <si>
-    <t>428.398.462-09</t>
-  </si>
-  <si>
-    <t>carlos@hotmail.com.br</t>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>Data do Pagamento</t>
-  </si>
-  <si>
-    <t>Comissão</t>
+    <t>380.778.735-61</t>
+  </si>
+  <si>
+    <t>irusyaw2@outlook.com</t>
   </si>
   <si>
     <t>Pedro Souza</t>
   </si>
   <si>
-    <t>Daniella Fernandes</t>
-  </si>
-  <si>
-    <t>Eduardo Pereira</t>
-  </si>
-  <si>
-    <t>Fernanda Rodrigues</t>
-  </si>
-  <si>
-    <t>Gabriel Silva</t>
-  </si>
-  <si>
-    <t>Gabriela Oliveira</t>
-  </si>
-  <si>
-    <t>Henrique Santos</t>
-  </si>
-  <si>
-    <t>Isabella Fernandes</t>
-  </si>
-  <si>
-    <t>João Souza</t>
+    <t>104.187.063-95</t>
+  </si>
+  <si>
+    <t>d6d2nj8f@icloud.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="181" formatCode="[$R$ -416]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,7 +195,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,13 +202,6 @@
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -644,171 +672,164 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1288,196 +1309,276 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.2857142857143" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.8571428571429" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8571428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>36914</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>37943</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>35845</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>30561</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>37943</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7">
+        <v>19111</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>42286</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44031</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>14670</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7">
+        <v>13990</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7">
+        <v>24099</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21478</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7">
+        <v>15134</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1490,197 +1591,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="15.8761904761905" customWidth="1"/>
-    <col min="2" max="2" width="16.247619047619" customWidth="1"/>
-    <col min="3" max="3" width="8.75238095238095" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>400</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>150</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4">
-        <v>80</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4">
-        <v>120</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>180</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4">
-        <v>110</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
-        <v>130</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>340</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4">
-        <v>320</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="2">
-        <v>45275</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" customHeight="1" spans="7:7">
-      <c r="G15" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>